--- a/Code/Results/Cases/Case_8_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002783407192611</v>
+        <v>1.001192926667284</v>
       </c>
       <c r="D2">
-        <v>1.022898934527441</v>
+        <v>1.021482880894594</v>
       </c>
       <c r="E2">
-        <v>1.008069750515127</v>
+        <v>1.006996597619081</v>
       </c>
       <c r="F2">
-        <v>1.026925164791164</v>
+        <v>1.026210933364777</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04915942242771</v>
+        <v>1.048435417711212</v>
       </c>
       <c r="J2">
-        <v>1.024881184554042</v>
+        <v>1.023338015952437</v>
       </c>
       <c r="K2">
-        <v>1.034048208817376</v>
+        <v>1.032650823224032</v>
       </c>
       <c r="L2">
-        <v>1.019417794158952</v>
+        <v>1.018359311767831</v>
       </c>
       <c r="M2">
-        <v>1.038021713022039</v>
+        <v>1.03731679709937</v>
       </c>
       <c r="N2">
-        <v>1.026336633391628</v>
+        <v>1.022682668846331</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038664023553737</v>
+        <v>1.038106128220878</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035145267178112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034166001715602</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02041304702399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008511473469353</v>
+        <v>1.005858748621191</v>
       </c>
       <c r="D3">
-        <v>1.026758940257678</v>
+        <v>1.024484950845819</v>
       </c>
       <c r="E3">
-        <v>1.012824127915502</v>
+        <v>1.010786599184476</v>
       </c>
       <c r="F3">
-        <v>1.030505109312058</v>
+        <v>1.02933770623354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05069439200236</v>
+        <v>1.04953266570736</v>
       </c>
       <c r="J3">
-        <v>1.028772766117585</v>
+        <v>1.026190962528404</v>
       </c>
       <c r="K3">
-        <v>1.037060511638477</v>
+        <v>1.034813841624331</v>
       </c>
       <c r="L3">
-        <v>1.023295509592893</v>
+        <v>1.021283299031556</v>
       </c>
       <c r="M3">
-        <v>1.040762000587477</v>
+        <v>1.039608477743728</v>
       </c>
       <c r="N3">
-        <v>1.030233741447358</v>
+        <v>1.024282295094477</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040832779697485</v>
+        <v>1.039919843551268</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037272575449922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035692501266817</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02092558576497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012127685430898</v>
+        <v>1.008814042957979</v>
       </c>
       <c r="D4">
-        <v>1.029198244902499</v>
+        <v>1.026388351133145</v>
       </c>
       <c r="E4">
-        <v>1.015830568033641</v>
+        <v>1.013192598257775</v>
       </c>
       <c r="F4">
-        <v>1.032775385882232</v>
+        <v>1.031326093410168</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051649427506183</v>
+        <v>1.050213831551924</v>
       </c>
       <c r="J4">
-        <v>1.031226170373284</v>
+        <v>1.027994940642611</v>
       </c>
       <c r="K4">
-        <v>1.038956595634748</v>
+        <v>1.036178391517817</v>
       </c>
       <c r="L4">
-        <v>1.025741613968703</v>
+        <v>1.02313436563662</v>
       </c>
       <c r="M4">
-        <v>1.042493701061672</v>
+        <v>1.041060587954211</v>
       </c>
       <c r="N4">
-        <v>1.032690629818509</v>
+        <v>1.025293761789003</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042203302584089</v>
+        <v>1.041069091430838</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038614178972417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036658343586625</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021246246183396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013635464040344</v>
+        <v>1.010047209599585</v>
       </c>
       <c r="D5">
-        <v>1.030218352607186</v>
+        <v>1.027185495801971</v>
       </c>
       <c r="E5">
-        <v>1.017087259294197</v>
+        <v>1.01419926849487</v>
       </c>
       <c r="F5">
-        <v>1.033722726493244</v>
+        <v>1.032156348159489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05204610019269</v>
+        <v>1.050496454631901</v>
       </c>
       <c r="J5">
-        <v>1.032250682864436</v>
+        <v>1.028748925579057</v>
       </c>
       <c r="K5">
-        <v>1.039749440458878</v>
+        <v>1.036749863276859</v>
       </c>
       <c r="L5">
-        <v>1.026764197077935</v>
+        <v>1.023908908416469</v>
       </c>
       <c r="M5">
-        <v>1.043215659092628</v>
+        <v>1.041666296024261</v>
       </c>
       <c r="N5">
-        <v>1.033716597234912</v>
+        <v>1.025716508755911</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042774682388763</v>
+        <v>1.041548468219661</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039181969451503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037070329382404</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021381275165173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01389740934549</v>
+        <v>1.010260093511964</v>
       </c>
       <c r="D6">
-        <v>1.030398679868257</v>
+        <v>1.027326173157527</v>
       </c>
       <c r="E6">
-        <v>1.017308117234375</v>
+        <v>1.014374883419906</v>
       </c>
       <c r="F6">
-        <v>1.033885498977394</v>
+        <v>1.032298230271239</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052117131357883</v>
+        <v>1.050547200406618</v>
       </c>
       <c r="J6">
-        <v>1.032431578309837</v>
+        <v>1.028881477096506</v>
       </c>
       <c r="K6">
-        <v>1.039891570928168</v>
+        <v>1.036852621801451</v>
       </c>
       <c r="L6">
-        <v>1.026945715244893</v>
+        <v>1.024045537357137</v>
       </c>
       <c r="M6">
-        <v>1.043340603639692</v>
+        <v>1.041770497223333</v>
       </c>
       <c r="N6">
-        <v>1.033897749572594</v>
+        <v>1.025790828066717</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042873567302979</v>
+        <v>1.041630936357811</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039291221033757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037152629274463</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02140720082161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012174989707716</v>
+        <v>1.008892509374052</v>
       </c>
       <c r="D7">
-        <v>1.029238516298705</v>
+        <v>1.026451757511833</v>
       </c>
       <c r="E7">
-        <v>1.015876763616524</v>
+        <v>1.013270775099713</v>
       </c>
       <c r="F7">
-        <v>1.032799815848624</v>
+        <v>1.031364444116363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051668138072872</v>
+        <v>1.050244598360155</v>
       </c>
       <c r="J7">
-        <v>1.031266324721701</v>
+        <v>1.028065438606094</v>
       </c>
       <c r="K7">
-        <v>1.038993526963453</v>
+        <v>1.03623818252406</v>
       </c>
       <c r="L7">
-        <v>1.025784334892068</v>
+        <v>1.023208680607398</v>
       </c>
       <c r="M7">
-        <v>1.04251498462478</v>
+        <v>1.041095630311839</v>
       </c>
       <c r="N7">
-        <v>1.032730841190707</v>
+        <v>1.025385697832047</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04222014705739</v>
+        <v>1.041096825084973</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038660434639472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036722801193874</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021271946888533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004773519015862</v>
+        <v>1.002946654704358</v>
       </c>
       <c r="D8">
-        <v>1.02424986440287</v>
+        <v>1.022636414012395</v>
       </c>
       <c r="E8">
-        <v>1.009729650884912</v>
+        <v>1.008457524291524</v>
       </c>
       <c r="F8">
-        <v>1.028159983537224</v>
+        <v>1.027346969825984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049703327636107</v>
+        <v>1.048879479934314</v>
       </c>
       <c r="J8">
-        <v>1.026244152019911</v>
+        <v>1.024469724706216</v>
       </c>
       <c r="K8">
-        <v>1.03511107687008</v>
+        <v>1.033518248011636</v>
       </c>
       <c r="L8">
-        <v>1.020779421235086</v>
+        <v>1.019524138907365</v>
       </c>
       <c r="M8">
-        <v>1.038971555809024</v>
+        <v>1.038168824722093</v>
       </c>
       <c r="N8">
-        <v>1.027701536427629</v>
+        <v>1.023476326793012</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039415761961431</v>
+        <v>1.038780452888847</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035919808831115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034804637404126</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020647867873877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909492225117622</v>
+        <v>0.9917880543096476</v>
       </c>
       <c r="D9">
-        <v>1.01494234392558</v>
+        <v>1.015465601123033</v>
       </c>
       <c r="E9">
-        <v>0.9982790200326411</v>
+        <v>0.9994298564608616</v>
       </c>
       <c r="F9">
-        <v>1.0195902419038</v>
+        <v>1.01991554722099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04591388026761</v>
+        <v>1.04617756544</v>
       </c>
       <c r="J9">
-        <v>1.016825685817418</v>
+        <v>1.017634167865722</v>
       </c>
       <c r="K9">
-        <v>1.027797556158371</v>
+        <v>1.028312645895153</v>
       </c>
       <c r="L9">
-        <v>1.011400080782743</v>
+        <v>1.012532190623954</v>
       </c>
       <c r="M9">
-        <v>1.032373280407449</v>
+        <v>1.032693565751259</v>
       </c>
       <c r="N9">
-        <v>1.018269694922816</v>
+        <v>1.019663412913995</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034193642398734</v>
+        <v>1.034447128971775</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030745386565874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03112042289369</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019400150559336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9813499230684789</v>
+        <v>0.9843063835806599</v>
       </c>
       <c r="D10">
-        <v>1.008520758817073</v>
+        <v>1.010717249937812</v>
       </c>
       <c r="E10">
-        <v>0.9904033892295289</v>
+        <v>0.9934918967827273</v>
       </c>
       <c r="F10">
-        <v>1.013864694309758</v>
+        <v>1.015098237308977</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043251619263058</v>
+        <v>1.044365699416233</v>
       </c>
       <c r="J10">
-        <v>1.010323543500431</v>
+        <v>1.01315679308532</v>
       </c>
       <c r="K10">
-        <v>1.022737853902822</v>
+        <v>1.024895660213359</v>
       </c>
       <c r="L10">
-        <v>1.004948102508303</v>
+        <v>1.007979659740982</v>
       </c>
       <c r="M10">
-        <v>1.027988049799926</v>
+        <v>1.029200136315192</v>
       </c>
       <c r="N10">
-        <v>1.011758318817931</v>
+        <v>1.017388683984896</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030774910827177</v>
+        <v>1.031734147686476</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02718474967061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02872300641035</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018625269919468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9784447678946959</v>
+        <v>0.9821598203600571</v>
       </c>
       <c r="D11">
-        <v>1.006721823249156</v>
+        <v>1.00951247547284</v>
       </c>
       <c r="E11">
-        <v>0.9883624079098445</v>
+        <v>0.992093866810533</v>
       </c>
       <c r="F11">
-        <v>1.013418956258452</v>
+        <v>1.014981803013797</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04272001217056</v>
+        <v>1.044138088781204</v>
       </c>
       <c r="J11">
-        <v>1.008742600428762</v>
+        <v>1.012294077109408</v>
       </c>
       <c r="K11">
-        <v>1.02151807946519</v>
+        <v>1.024257202727509</v>
       </c>
       <c r="L11">
-        <v>1.003507180671757</v>
+        <v>1.007166437438793</v>
       </c>
       <c r="M11">
-        <v>1.0280921712911</v>
+        <v>1.029626609034213</v>
       </c>
       <c r="N11">
-        <v>1.010175130625764</v>
+        <v>1.017354253748314</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031297165911099</v>
+        <v>1.032510888368636</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026355515582073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028307958893642</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018688432222621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9777911029675083</v>
+        <v>0.9816091699378032</v>
       </c>
       <c r="D12">
-        <v>1.006374684491556</v>
+        <v>1.009245547963332</v>
       </c>
       <c r="E12">
-        <v>0.9880775238252137</v>
+        <v>0.9918430769498328</v>
       </c>
       <c r="F12">
-        <v>1.013948566699221</v>
+        <v>1.015557226743432</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042727780191341</v>
+        <v>1.044187365323342</v>
       </c>
       <c r="J12">
-        <v>1.008566058538271</v>
+        <v>1.012212784607618</v>
       </c>
       <c r="K12">
-        <v>1.021380766244123</v>
+        <v>1.024197735888957</v>
       </c>
       <c r="L12">
-        <v>1.003436760606699</v>
+        <v>1.007128237202841</v>
       </c>
       <c r="M12">
-        <v>1.028813325953785</v>
+        <v>1.030392323313784</v>
       </c>
       <c r="N12">
-        <v>1.009998338025539</v>
+        <v>1.017503684727664</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03219622462401</v>
+        <v>1.033444765045317</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026258428553235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028265914099259</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018797959528407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9788662178691895</v>
+        <v>0.9822482362820278</v>
       </c>
       <c r="D13">
-        <v>1.007157264655768</v>
+        <v>1.00968931005855</v>
       </c>
       <c r="E13">
-        <v>0.9891621068104615</v>
+        <v>0.9924569071863486</v>
       </c>
       <c r="F13">
-        <v>1.015299074683894</v>
+        <v>1.016721288803629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043174999366357</v>
+        <v>1.044462652404272</v>
       </c>
       <c r="J13">
-        <v>1.009496728291494</v>
+        <v>1.012727910814543</v>
       </c>
       <c r="K13">
-        <v>1.022105037708841</v>
+        <v>1.024589784407926</v>
       </c>
       <c r="L13">
-        <v>1.00445518854693</v>
+        <v>1.00768553692772</v>
       </c>
       <c r="M13">
-        <v>1.030095852927767</v>
+        <v>1.03149201424841</v>
       </c>
       <c r="N13">
-        <v>1.010930329436561</v>
+        <v>1.017749230790354</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033488476091239</v>
+        <v>1.034592165111514</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026768002333925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028540345271235</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018961216721443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9803844686250239</v>
+        <v>0.983241514364344</v>
       </c>
       <c r="D14">
-        <v>1.008204895687197</v>
+        <v>1.010330051379503</v>
       </c>
       <c r="E14">
-        <v>0.9905247091257564</v>
+        <v>0.9932891777580426</v>
       </c>
       <c r="F14">
-        <v>1.0165962576652</v>
+        <v>1.017794044653775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043678870951524</v>
+        <v>1.0447599013394</v>
       </c>
       <c r="J14">
-        <v>1.010633530975903</v>
+        <v>1.013365152610571</v>
       </c>
       <c r="K14">
-        <v>1.022990489035627</v>
+        <v>1.025076469354178</v>
       </c>
       <c r="L14">
-        <v>1.005644762162895</v>
+        <v>1.008355906463676</v>
       </c>
       <c r="M14">
-        <v>1.031228403494681</v>
+        <v>1.032404555558767</v>
       </c>
       <c r="N14">
-        <v>1.012068746511175</v>
+        <v>1.017969580966515</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034557791462989</v>
+        <v>1.03548743343939</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027395499007932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028886022429025</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019106481888282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9811531618153944</v>
+        <v>0.9837686313963143</v>
       </c>
       <c r="D15">
-        <v>1.008726197574794</v>
+        <v>1.010664394751255</v>
       </c>
       <c r="E15">
-        <v>0.9911781358483011</v>
+        <v>0.9937088976733236</v>
       </c>
       <c r="F15">
-        <v>1.017130052613374</v>
+        <v>1.018224444233069</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043910273811584</v>
+        <v>1.044896340409263</v>
       </c>
       <c r="J15">
-        <v>1.011175589307543</v>
+        <v>1.013677316769395</v>
       </c>
       <c r="K15">
-        <v>1.023414381846396</v>
+        <v>1.025317133829971</v>
       </c>
       <c r="L15">
-        <v>1.006195494666104</v>
+        <v>1.008677844726421</v>
       </c>
       <c r="M15">
-        <v>1.031665818784345</v>
+        <v>1.032740602224925</v>
       </c>
       <c r="N15">
-        <v>1.012611574627821</v>
+        <v>1.01806359021396</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034941194944072</v>
+        <v>1.035790691822772</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027701143107261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029062674538333</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019165256246712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850134074831376</v>
+        <v>0.9865571409980098</v>
       </c>
       <c r="D16">
-        <v>1.011295614333692</v>
+        <v>1.012402289173865</v>
       </c>
       <c r="E16">
-        <v>0.9942912599489209</v>
+        <v>0.9958386795315087</v>
       </c>
       <c r="F16">
-        <v>1.019339962944964</v>
+        <v>1.019974350360072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044969988234826</v>
+        <v>1.045533355755226</v>
       </c>
       <c r="J16">
-        <v>1.013755772938551</v>
+        <v>1.015235923760001</v>
       </c>
       <c r="K16">
-        <v>1.02542778690413</v>
+        <v>1.026515138835552</v>
       </c>
       <c r="L16">
-        <v>1.008727374808665</v>
+        <v>1.01024657657734</v>
       </c>
       <c r="M16">
-        <v>1.033332913886348</v>
+        <v>1.033956442809955</v>
       </c>
       <c r="N16">
-        <v>1.015195422415536</v>
+        <v>1.018528747610552</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036220011473086</v>
+        <v>1.036712856112824</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029127905583886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029913203009702</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019395601761575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.987189916847833</v>
+        <v>0.9882130111800349</v>
       </c>
       <c r="D17">
-        <v>1.012727529120758</v>
+        <v>1.013426504679347</v>
       </c>
       <c r="E17">
-        <v>0.9959792560392995</v>
+        <v>0.9970724962692332</v>
       </c>
       <c r="F17">
-        <v>1.020357466869489</v>
+        <v>1.020767814589598</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045520796314647</v>
+        <v>1.045876554341716</v>
       </c>
       <c r="J17">
-        <v>1.015149426775514</v>
+        <v>1.016131804958648</v>
       </c>
       <c r="K17">
-        <v>1.026516019069346</v>
+        <v>1.027203144039099</v>
       </c>
       <c r="L17">
-        <v>1.010058152660406</v>
+        <v>1.011132050674914</v>
       </c>
       <c r="M17">
-        <v>1.034017728925207</v>
+        <v>1.034421250342829</v>
       </c>
       <c r="N17">
-        <v>1.016591055400802</v>
+        <v>1.018841258352063</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036631833242877</v>
+        <v>1.036950813321609</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029899941816019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030402504984385</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019501750441621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9880557563024054</v>
+        <v>0.9889478551623199</v>
       </c>
       <c r="D18">
-        <v>1.013254000086015</v>
+        <v>1.01384631050596</v>
       </c>
       <c r="E18">
-        <v>0.9965241483465399</v>
+        <v>0.9975405395096233</v>
       </c>
       <c r="F18">
-        <v>1.02031472113281</v>
+        <v>1.020666474827834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045647071122076</v>
+        <v>1.045947817929605</v>
       </c>
       <c r="J18">
-        <v>1.015577723000192</v>
+        <v>1.016435001111422</v>
       </c>
       <c r="K18">
-        <v>1.026847807931606</v>
+        <v>1.027430243447631</v>
       </c>
       <c r="L18">
-        <v>1.010403150462115</v>
+        <v>1.011401861921636</v>
       </c>
       <c r="M18">
-        <v>1.033791773290264</v>
+        <v>1.034137764712379</v>
       </c>
       <c r="N18">
-        <v>1.017019959855246</v>
+        <v>1.018928131292439</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036214573485156</v>
+        <v>1.036488134000448</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030122794990306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030550206211791</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019473152677281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9877135835532502</v>
+        <v>0.9888009372513288</v>
       </c>
       <c r="D19">
-        <v>1.01295042099354</v>
+        <v>1.013690791485607</v>
       </c>
       <c r="E19">
-        <v>0.9960251843155465</v>
+        <v>0.997276414203193</v>
       </c>
       <c r="F19">
-        <v>1.019248863468713</v>
+        <v>1.019681156453819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045378912919121</v>
+        <v>1.045753783718043</v>
       </c>
       <c r="J19">
-        <v>1.015111535293291</v>
+        <v>1.016156666476359</v>
       </c>
       <c r="K19">
-        <v>1.02648593067028</v>
+        <v>1.027214016674035</v>
       </c>
       <c r="L19">
-        <v>1.00984796885388</v>
+        <v>1.01107752962586</v>
       </c>
       <c r="M19">
-        <v>1.032680599665121</v>
+        <v>1.03310583058892</v>
       </c>
       <c r="N19">
-        <v>1.016553110108328</v>
+        <v>1.018748672664169</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035008793304892</v>
+        <v>1.035345115962153</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029873382660453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030404398681311</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019318243119624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9839348848147335</v>
+        <v>0.9861622189847015</v>
       </c>
       <c r="D20">
-        <v>1.010270440862331</v>
+        <v>1.011897569431432</v>
       </c>
       <c r="E20">
-        <v>0.9925454004714321</v>
+        <v>0.9949433054117963</v>
       </c>
       <c r="F20">
-        <v>1.015395906262192</v>
+        <v>1.016314917913472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043990301530767</v>
+        <v>1.044814426126931</v>
       </c>
       <c r="J20">
-        <v>1.012099451391446</v>
+        <v>1.014237186273728</v>
       </c>
       <c r="K20">
-        <v>1.024135069385598</v>
+        <v>1.025734391511695</v>
       </c>
       <c r="L20">
-        <v>1.006720608900847</v>
+        <v>1.009075657311327</v>
       </c>
       <c r="M20">
-        <v>1.029173333688085</v>
+        <v>1.030076829867716</v>
       </c>
       <c r="N20">
-        <v>1.013536748701851</v>
+        <v>1.017796875445633</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031702299430004</v>
+        <v>1.032417328555029</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028215181630099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029362595150712</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018806388275092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763812411807473</v>
+        <v>0.9810231215876526</v>
       </c>
       <c r="D21">
-        <v>1.005196416825201</v>
+        <v>1.008705955192143</v>
       </c>
       <c r="E21">
-        <v>0.9862970250055836</v>
+        <v>0.9910109036888838</v>
       </c>
       <c r="F21">
-        <v>1.010666730724504</v>
+        <v>1.012633955371595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041813474596782</v>
+        <v>1.0435971923857</v>
       </c>
       <c r="J21">
-        <v>1.006900754536995</v>
+        <v>1.011336257419519</v>
       </c>
       <c r="K21">
-        <v>1.020080005757084</v>
+        <v>1.023524246641846</v>
       </c>
       <c r="L21">
-        <v>1.001542739495638</v>
+        <v>1.006164602218846</v>
       </c>
       <c r="M21">
-        <v>1.025448797847973</v>
+        <v>1.027379862625595</v>
       </c>
       <c r="N21">
-        <v>1.008330669101569</v>
+        <v>1.016990350549285</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028713308757491</v>
+        <v>1.030241640904826</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025351336604584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027803521950672</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018391234566428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.971539844942485</v>
+        <v>0.9777263525443637</v>
       </c>
       <c r="D22">
-        <v>1.001950906185706</v>
+        <v>1.006665970286794</v>
       </c>
       <c r="E22">
-        <v>0.9823109126427941</v>
+        <v>0.9885084194127387</v>
       </c>
       <c r="F22">
-        <v>1.007740325984706</v>
+        <v>1.010380352342375</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040416771895327</v>
+        <v>1.042814411509455</v>
       </c>
       <c r="J22">
-        <v>1.003582075763769</v>
+        <v>1.009476271918983</v>
       </c>
       <c r="K22">
-        <v>1.017483814060508</v>
+        <v>1.02210651962048</v>
       </c>
       <c r="L22">
-        <v>0.9982411315271847</v>
+        <v>1.004311016604706</v>
       </c>
       <c r="M22">
-        <v>1.023159989353683</v>
+        <v>1.025748939533114</v>
       </c>
       <c r="N22">
-        <v>1.005007277423826</v>
+        <v>1.016425842691333</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026901837642225</v>
+        <v>1.02895085470594</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023502001392212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026786175337897</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018129382463987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9740907027051896</v>
+        <v>0.9793900609871619</v>
       </c>
       <c r="D23">
-        <v>1.003652379218728</v>
+        <v>1.007675178059861</v>
       </c>
       <c r="E23">
-        <v>0.9844016927757742</v>
+        <v>0.9897405608473701</v>
       </c>
       <c r="F23">
-        <v>1.009285769436022</v>
+        <v>1.011537742532007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041148544658994</v>
+        <v>1.043193237919292</v>
       </c>
       <c r="J23">
-        <v>1.005322687005815</v>
+        <v>1.010379515607841</v>
       </c>
       <c r="K23">
-        <v>1.018840684557664</v>
+        <v>1.022786781029909</v>
       </c>
       <c r="L23">
-        <v>0.9999684771075187</v>
+        <v>1.005200440670404</v>
       </c>
       <c r="M23">
-        <v>1.02436688738344</v>
+        <v>1.02657644804018</v>
       </c>
       <c r="N23">
-        <v>1.006750360533488</v>
+        <v>1.016608247999861</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027857034324653</v>
+        <v>1.029605782614965</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024451619608273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027256473532874</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018232634218997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9838786120414693</v>
+        <v>0.9861404470489296</v>
       </c>
       <c r="D24">
-        <v>1.010207644853457</v>
+        <v>1.011860670396592</v>
       </c>
       <c r="E24">
-        <v>0.9924563009398106</v>
+        <v>0.9948959912642298</v>
       </c>
       <c r="F24">
-        <v>1.015242880583429</v>
+        <v>1.016176455623128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043938260602332</v>
+        <v>1.044775397069913</v>
       </c>
       <c r="J24">
-        <v>1.012011682845819</v>
+        <v>1.01418264881245</v>
       </c>
       <c r="K24">
-        <v>1.024057843145415</v>
+        <v>1.025682652397669</v>
       </c>
       <c r="L24">
-        <v>1.006617200285886</v>
+        <v>1.009013335835711</v>
       </c>
       <c r="M24">
-        <v>1.029007499419247</v>
+        <v>1.02992532751798</v>
       </c>
       <c r="N24">
-        <v>1.013448855514822</v>
+        <v>1.017758271311114</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031529823785498</v>
+        <v>1.032256231999006</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028132888364482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029295682093581</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018771297261277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9946642134061929</v>
+        <v>0.9947088581148424</v>
       </c>
       <c r="D25">
-        <v>1.017453404245123</v>
+        <v>1.017346157339611</v>
       </c>
       <c r="E25">
-        <v>1.001363383553156</v>
+        <v>1.001782377077269</v>
       </c>
       <c r="F25">
-        <v>1.021873345816188</v>
+        <v>1.021858699450365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046954133075642</v>
+        <v>1.046897009167358</v>
       </c>
       <c r="J25">
-        <v>1.019372492100334</v>
+        <v>1.019415611858576</v>
       </c>
       <c r="K25">
-        <v>1.029786688321621</v>
+        <v>1.029681034667772</v>
       </c>
       <c r="L25">
-        <v>1.013940571552829</v>
+        <v>1.014353086806085</v>
       </c>
       <c r="M25">
-        <v>1.034141336952512</v>
+        <v>1.034126905763685</v>
       </c>
       <c r="N25">
-        <v>1.020820117962776</v>
+        <v>1.02059555665916</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035592951606631</v>
+        <v>1.035581530209711</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03218064671674</v>
+        <v>1.032119565054763</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01972882506664</v>
       </c>
     </row>
   </sheetData>
